--- a/Översikt HÖÖR.xlsx
+++ b/Översikt HÖÖR.xlsx
@@ -572,7 +572,7 @@
         <v>45098</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43500</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>43500</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -829,7 +829,7 @@
         <v>44281</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44434</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>44446</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>45050</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
         <v>45079</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         <v>43347</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>43437</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>43439</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>43441</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         <v>43452</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>43461</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
         <v>43476</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>43476</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>43476</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
         <v>43488</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>43490</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>43496</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1943,7 +1943,7 @@
         <v>43502</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         <v>43517</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         <v>43549</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         <v>43553</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         <v>43587</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
         <v>43602</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
         <v>43620</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2342,7 +2342,7 @@
         <v>43623</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>43640</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>43677</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>43679</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>43689</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
         <v>43693</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
         <v>43781</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>43788</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         <v>43806</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>43810</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>43861</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2969,7 +2969,7 @@
         <v>43878</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         <v>43880</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>43893</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>43909</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>43910</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3254,7 +3254,7 @@
         <v>43917</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>43920</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>43969</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>43977</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>43993</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>44055</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
         <v>44055</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         <v>44109</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>44116</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>44116</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>44116</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         <v>44117</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3938,7 +3938,7 @@
         <v>44131</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>44131</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>44131</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>44147</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>44175</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>44178</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>44178</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>44215</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>44235</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>44236</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>44245</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>44246</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>44253</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>44264</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>44264</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>44273</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>44308</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>44309</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>44371</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>44385</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>44390</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>44390</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>44403</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>44434</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5311,7 +5311,7 @@
         <v>44434</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>44434</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>44435</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>44460</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         <v>44461</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>44480</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>44490</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>44515</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>44515</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>44538</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         <v>44538</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>44551</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>44594</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>44595</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>44596</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>44596</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>44599</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>44601</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>44608</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>44621</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>44629</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>44644</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>44672</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>44672</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>44685</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>44690</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>44713</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>44734</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         <v>44734</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44741</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>44741</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>44763</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>44776</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>44798</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>44817</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>44820</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>44832</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>44838</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7497,7 +7497,7 @@
         <v>44838</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>44838</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>44838</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7668,7 +7668,7 @@
         <v>44838</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>44838</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>44848</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>44852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>44860</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>44874</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>44879</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>44883</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8124,7 +8124,7 @@
         <v>44887</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         <v>44887</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8238,7 +8238,7 @@
         <v>44888</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8295,7 +8295,7 @@
         <v>44890</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>44896</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8409,7 +8409,7 @@
         <v>44908</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>44911</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>44911</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>44915</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>44970</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>44974</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>44977</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
         <v>44981</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44984</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>45001</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>45001</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>45001</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>45004</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>45005</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>45012</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9269,7 +9269,7 @@
         <v>45012</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9326,7 +9326,7 @@
         <v>45037</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9383,7 +9383,7 @@
         <v>45041</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9440,7 +9440,7 @@
         <v>45049</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>45050</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9554,7 +9554,7 @@
         <v>45051</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9616,7 +9616,7 @@
         <v>45051</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>45057</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
         <v>45061</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>45061</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9859,7 +9859,7 @@
         <v>45079</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9916,7 +9916,7 @@
         <v>45089</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9973,7 +9973,7 @@
         <v>45093</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10030,7 +10030,7 @@
         <v>45093</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10087,7 +10087,7 @@
         <v>45098</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10144,7 +10144,7 @@
         <v>45098</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10201,7 +10201,7 @@
         <v>45103</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10258,7 +10258,7 @@
         <v>45110</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10315,7 +10315,7 @@
         <v>45113</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10372,7 +10372,7 @@
         <v>45113</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10429,7 +10429,7 @@
         <v>45113</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10486,7 +10486,7 @@
         <v>45160</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>

--- a/Översikt HÖÖR.xlsx
+++ b/Översikt HÖÖR.xlsx
@@ -572,7 +572,7 @@
         <v>45098</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43500</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>43500</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -829,7 +829,7 @@
         <v>44281</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44434</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>44446</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>45050</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
         <v>45079</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         <v>43347</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>43437</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>43439</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>43441</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         <v>43452</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>43461</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
         <v>43476</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>43476</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>43476</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
         <v>43488</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>43490</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>43496</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1943,7 +1943,7 @@
         <v>43502</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         <v>43517</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         <v>43549</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         <v>43553</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         <v>43587</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
         <v>43602</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
         <v>43620</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2342,7 +2342,7 @@
         <v>43623</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>43640</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>43677</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>43679</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>43689</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
         <v>43693</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
         <v>43781</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>43788</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         <v>43806</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>43810</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>43861</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2969,7 +2969,7 @@
         <v>43878</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         <v>43880</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>43893</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>43909</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>43910</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3254,7 +3254,7 @@
         <v>43917</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>43920</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>43969</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>43977</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>43993</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>44055</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
         <v>44055</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         <v>44109</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>44116</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>44116</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>44116</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         <v>44117</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3938,7 +3938,7 @@
         <v>44131</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>44131</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>44131</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>44147</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>44175</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>44178</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>44178</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>44215</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>44235</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>44236</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>44245</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>44246</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>44253</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>44264</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>44264</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>44273</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>44308</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>44309</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>44371</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>44385</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>44390</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>44390</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>44403</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>44434</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5311,7 +5311,7 @@
         <v>44434</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>44434</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>44435</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>44460</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         <v>44461</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>44480</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>44490</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>44515</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>44515</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>44538</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         <v>44538</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>44551</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>44594</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>44595</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>44596</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>44596</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>44599</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>44601</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>44608</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>44621</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>44629</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>44644</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>44672</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>44672</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>44685</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>44690</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>44713</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>44734</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         <v>44734</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44741</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>44741</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>44763</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>44776</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>44798</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>44817</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>44820</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>44832</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>44838</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7497,7 +7497,7 @@
         <v>44838</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>44838</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>44838</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7668,7 +7668,7 @@
         <v>44838</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>44838</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>44848</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>44852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>44860</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>44874</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>44879</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>44883</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8124,7 +8124,7 @@
         <v>44887</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         <v>44887</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8238,7 +8238,7 @@
         <v>44888</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8295,7 +8295,7 @@
         <v>44890</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>44896</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8409,7 +8409,7 @@
         <v>44908</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>44911</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>44911</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>44915</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>44970</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>44974</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>44977</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
         <v>44981</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44984</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>45001</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>45001</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>45001</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>45004</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>45005</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>45012</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9269,7 +9269,7 @@
         <v>45012</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9326,7 +9326,7 @@
         <v>45037</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9383,7 +9383,7 @@
         <v>45041</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9440,7 +9440,7 @@
         <v>45049</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>45050</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9554,7 +9554,7 @@
         <v>45051</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9616,7 +9616,7 @@
         <v>45051</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>45057</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
         <v>45061</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>45061</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9859,7 +9859,7 @@
         <v>45079</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9916,7 +9916,7 @@
         <v>45089</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9973,7 +9973,7 @@
         <v>45093</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10030,7 +10030,7 @@
         <v>45093</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10087,7 +10087,7 @@
         <v>45098</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10144,7 +10144,7 @@
         <v>45098</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10201,7 +10201,7 @@
         <v>45103</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10258,7 +10258,7 @@
         <v>45110</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10315,7 +10315,7 @@
         <v>45113</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10372,7 +10372,7 @@
         <v>45113</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10429,7 +10429,7 @@
         <v>45113</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10486,7 +10486,7 @@
         <v>45160</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>

--- a/Översikt HÖÖR.xlsx
+++ b/Översikt HÖÖR.xlsx
@@ -572,7 +572,7 @@
         <v>45098</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43500</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>43500</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -829,7 +829,7 @@
         <v>44281</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44434</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>44446</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>45050</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
         <v>45079</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         <v>43347</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>43437</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>43439</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>43441</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         <v>43452</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>43461</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
         <v>43476</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>43476</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>43476</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
         <v>43488</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>43490</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>43496</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1943,7 +1943,7 @@
         <v>43502</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         <v>43517</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         <v>43549</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         <v>43553</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         <v>43587</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
         <v>43602</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
         <v>43620</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2342,7 +2342,7 @@
         <v>43623</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>43640</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>43677</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>43679</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>43689</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
         <v>43693</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
         <v>43781</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>43788</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         <v>43806</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>43810</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>43861</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2969,7 +2969,7 @@
         <v>43878</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         <v>43880</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>43893</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>43909</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>43910</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3254,7 +3254,7 @@
         <v>43917</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>43920</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>43969</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>43977</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>43993</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>44055</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
         <v>44055</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         <v>44109</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>44116</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>44116</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>44116</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         <v>44117</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3938,7 +3938,7 @@
         <v>44131</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>44131</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>44131</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>44147</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>44175</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>44178</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>44178</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>44215</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>44235</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>44236</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>44245</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>44246</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>44253</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>44264</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>44264</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>44273</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>44308</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>44309</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>44371</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>44385</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>44390</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>44390</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>44403</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>44434</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5311,7 +5311,7 @@
         <v>44434</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>44434</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>44435</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>44460</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         <v>44461</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>44480</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>44490</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>44515</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>44515</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>44538</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         <v>44538</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>44551</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>44594</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>44595</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>44596</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>44596</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>44599</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>44601</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>44608</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>44621</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>44629</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>44644</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>44672</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>44672</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>44685</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>44690</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>44713</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>44734</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         <v>44734</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44741</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>44741</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>44763</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>44776</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>44798</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>44817</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>44820</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>44832</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>44838</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7497,7 +7497,7 @@
         <v>44838</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>44838</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>44838</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7668,7 +7668,7 @@
         <v>44838</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>44838</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>44848</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>44852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>44860</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>44874</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>44879</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>44883</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8124,7 +8124,7 @@
         <v>44887</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         <v>44887</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8238,7 +8238,7 @@
         <v>44888</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8295,7 +8295,7 @@
         <v>44890</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>44896</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8409,7 +8409,7 @@
         <v>44908</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>44911</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>44911</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>44915</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>44970</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>44974</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>44977</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
         <v>44981</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44984</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>45001</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>45001</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>45001</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>45004</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>45005</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>45012</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9269,7 +9269,7 @@
         <v>45012</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9326,7 +9326,7 @@
         <v>45037</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9383,7 +9383,7 @@
         <v>45041</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9440,7 +9440,7 @@
         <v>45049</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>45050</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9554,7 +9554,7 @@
         <v>45051</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9616,7 +9616,7 @@
         <v>45051</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>45057</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
         <v>45061</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>45061</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9859,7 +9859,7 @@
         <v>45079</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9916,7 +9916,7 @@
         <v>45089</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9973,7 +9973,7 @@
         <v>45093</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10030,7 +10030,7 @@
         <v>45093</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10087,7 +10087,7 @@
         <v>45098</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10144,7 +10144,7 @@
         <v>45098</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10201,7 +10201,7 @@
         <v>45103</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10258,7 +10258,7 @@
         <v>45110</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10315,7 +10315,7 @@
         <v>45113</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10372,7 +10372,7 @@
         <v>45113</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10429,7 +10429,7 @@
         <v>45113</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10486,7 +10486,7 @@
         <v>45160</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>

--- a/Översikt HÖÖR.xlsx
+++ b/Översikt HÖÖR.xlsx
@@ -572,7 +572,7 @@
         <v>45098</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43500</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>43500</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -829,7 +829,7 @@
         <v>44281</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44434</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>44446</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>45050</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
         <v>45079</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         <v>43347</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>43437</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>43439</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>43441</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         <v>43452</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>43461</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
         <v>43476</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>43476</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>43476</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
         <v>43488</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>43490</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>43496</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1943,7 +1943,7 @@
         <v>43502</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         <v>43517</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         <v>43549</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         <v>43553</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         <v>43587</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
         <v>43602</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
         <v>43620</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2342,7 +2342,7 @@
         <v>43623</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>43640</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>43677</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>43679</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>43689</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
         <v>43693</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
         <v>43781</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>43788</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         <v>43806</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>43810</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>43861</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2969,7 +2969,7 @@
         <v>43878</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         <v>43880</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>43893</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>43909</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>43910</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3254,7 +3254,7 @@
         <v>43917</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>43920</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>43969</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>43977</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>43993</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>44055</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
         <v>44055</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         <v>44109</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>44116</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>44116</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>44116</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         <v>44117</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3938,7 +3938,7 @@
         <v>44131</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>44131</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>44131</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>44147</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>44175</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>44178</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>44178</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>44215</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>44235</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>44236</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>44245</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>44246</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>44253</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>44264</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>44264</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>44273</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>44308</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>44309</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>44371</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>44385</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>44390</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>44390</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>44403</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>44434</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5311,7 +5311,7 @@
         <v>44434</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>44434</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>44435</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>44460</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         <v>44461</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>44480</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>44490</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>44515</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>44515</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>44538</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         <v>44538</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>44551</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>44594</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>44595</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>44596</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>44596</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>44599</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>44601</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>44608</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>44621</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>44629</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>44644</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>44672</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>44672</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>44685</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>44690</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>44713</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>44734</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         <v>44734</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44741</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>44741</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>44763</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>44776</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>44798</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>44817</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>44820</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>44832</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>44838</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7497,7 +7497,7 @@
         <v>44838</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>44838</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>44838</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7668,7 +7668,7 @@
         <v>44838</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>44838</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>44848</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>44852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>44860</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>44874</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>44879</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>44883</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8124,7 +8124,7 @@
         <v>44887</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         <v>44887</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8238,7 +8238,7 @@
         <v>44888</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8295,7 +8295,7 @@
         <v>44890</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>44896</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8409,7 +8409,7 @@
         <v>44908</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>44911</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>44911</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>44915</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>44970</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>44974</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>44977</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
         <v>44981</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44984</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>45001</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>45001</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>45001</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>45004</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>45005</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>45012</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9269,7 +9269,7 @@
         <v>45012</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9326,7 +9326,7 @@
         <v>45037</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9383,7 +9383,7 @@
         <v>45041</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9440,7 +9440,7 @@
         <v>45049</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>45050</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9554,7 +9554,7 @@
         <v>45051</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9616,7 +9616,7 @@
         <v>45051</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>45057</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
         <v>45061</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>45061</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9859,7 +9859,7 @@
         <v>45079</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9916,7 +9916,7 @@
         <v>45089</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9973,7 +9973,7 @@
         <v>45093</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10030,7 +10030,7 @@
         <v>45093</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10087,7 +10087,7 @@
         <v>45098</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10144,7 +10144,7 @@
         <v>45098</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10201,7 +10201,7 @@
         <v>45103</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10258,7 +10258,7 @@
         <v>45110</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10315,7 +10315,7 @@
         <v>45113</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10372,7 +10372,7 @@
         <v>45113</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10429,7 +10429,7 @@
         <v>45113</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10486,7 +10486,7 @@
         <v>45160</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>

--- a/Översikt HÖÖR.xlsx
+++ b/Översikt HÖÖR.xlsx
@@ -572,7 +572,7 @@
         <v>45098</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43500</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>43500</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -829,7 +829,7 @@
         <v>44281</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44434</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>44446</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>45050</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
         <v>45079</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         <v>43347</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>43437</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>43439</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>43441</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         <v>43452</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>43461</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
         <v>43476</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>43476</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>43476</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
         <v>43488</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>43490</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>43496</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1943,7 +1943,7 @@
         <v>43502</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         <v>43517</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         <v>43549</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         <v>43553</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         <v>43587</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
         <v>43602</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
         <v>43620</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2342,7 +2342,7 @@
         <v>43623</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>43640</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>43677</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>43679</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>43689</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
         <v>43693</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
         <v>43781</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>43788</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         <v>43806</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>43810</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>43861</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2969,7 +2969,7 @@
         <v>43878</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         <v>43880</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>43893</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>43909</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>43910</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3254,7 +3254,7 @@
         <v>43917</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>43920</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>43969</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>43977</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>43993</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>44055</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
         <v>44055</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         <v>44109</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>44116</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>44116</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>44116</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         <v>44117</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3938,7 +3938,7 @@
         <v>44131</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>44131</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>44131</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>44147</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>44175</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>44178</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>44178</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>44215</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>44235</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>44236</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>44245</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>44246</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>44253</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>44264</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>44264</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>44273</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>44308</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>44309</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>44371</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>44385</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>44390</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>44390</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>44403</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>44434</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5311,7 +5311,7 @@
         <v>44434</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>44434</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>44435</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>44460</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         <v>44461</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>44480</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>44490</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>44515</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>44515</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>44538</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         <v>44538</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>44551</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>44594</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>44595</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>44596</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>44596</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>44599</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>44601</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>44608</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>44621</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>44629</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>44644</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>44672</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>44672</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>44685</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>44690</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>44713</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>44734</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         <v>44734</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44741</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>44741</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>44763</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>44776</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>44798</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>44817</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>44820</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>44832</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>44838</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7497,7 +7497,7 @@
         <v>44838</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>44838</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>44838</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7668,7 +7668,7 @@
         <v>44838</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>44838</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>44848</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>44852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>44860</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>44874</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>44879</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>44883</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8124,7 +8124,7 @@
         <v>44887</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         <v>44887</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8238,7 +8238,7 @@
         <v>44888</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8295,7 +8295,7 @@
         <v>44890</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>44896</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8409,7 +8409,7 @@
         <v>44908</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>44911</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>44911</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>44915</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>44970</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>44974</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>44977</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
         <v>44981</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44984</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>45001</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>45001</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>45001</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>45004</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>45005</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>45012</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9269,7 +9269,7 @@
         <v>45012</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9326,7 +9326,7 @@
         <v>45037</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9383,7 +9383,7 @@
         <v>45041</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9440,7 +9440,7 @@
         <v>45049</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>45050</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9554,7 +9554,7 @@
         <v>45051</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9616,7 +9616,7 @@
         <v>45051</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>45057</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
         <v>45061</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>45061</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9859,7 +9859,7 @@
         <v>45079</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9916,7 +9916,7 @@
         <v>45089</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9973,7 +9973,7 @@
         <v>45093</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10030,7 +10030,7 @@
         <v>45093</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10087,7 +10087,7 @@
         <v>45098</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10144,7 +10144,7 @@
         <v>45098</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10201,7 +10201,7 @@
         <v>45103</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10258,7 +10258,7 @@
         <v>45110</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10315,7 +10315,7 @@
         <v>45113</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10372,7 +10372,7 @@
         <v>45113</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10429,7 +10429,7 @@
         <v>45113</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10486,7 +10486,7 @@
         <v>45160</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>

--- a/Översikt HÖÖR.xlsx
+++ b/Översikt HÖÖR.xlsx
@@ -572,7 +572,7 @@
         <v>45098</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43500</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>43500</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -829,7 +829,7 @@
         <v>44281</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44434</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>44446</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>45050</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
         <v>45079</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         <v>43347</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>43437</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>43439</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>43441</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         <v>43452</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>43461</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
         <v>43476</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>43476</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>43476</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
         <v>43488</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>43490</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>43496</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1943,7 +1943,7 @@
         <v>43502</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         <v>43517</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         <v>43549</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         <v>43553</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         <v>43587</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
         <v>43602</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
         <v>43620</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2342,7 +2342,7 @@
         <v>43623</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>43640</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>43677</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>43679</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>43689</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
         <v>43693</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
         <v>43781</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>43788</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         <v>43806</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>43810</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>43861</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2969,7 +2969,7 @@
         <v>43878</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         <v>43880</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>43893</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>43909</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>43910</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3254,7 +3254,7 @@
         <v>43917</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>43920</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>43969</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>43977</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>43993</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>44055</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
         <v>44055</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         <v>44109</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>44116</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>44116</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>44116</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         <v>44117</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3938,7 +3938,7 @@
         <v>44131</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>44131</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>44131</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>44147</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>44175</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>44178</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>44178</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>44215</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>44235</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>44236</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>44245</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>44246</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>44253</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>44264</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>44264</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>44273</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>44308</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>44309</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>44371</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>44385</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>44390</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>44390</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>44403</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>44434</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5311,7 +5311,7 @@
         <v>44434</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>44434</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>44435</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>44460</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         <v>44461</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>44480</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>44490</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>44515</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>44515</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>44538</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         <v>44538</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>44551</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>44594</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>44595</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>44596</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>44596</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>44599</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>44601</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>44608</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>44621</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>44629</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>44644</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>44672</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>44672</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>44685</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>44690</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>44713</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>44734</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         <v>44734</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44741</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>44741</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>44763</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>44776</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>44798</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>44817</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>44820</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>44832</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>44838</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7497,7 +7497,7 @@
         <v>44838</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>44838</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>44838</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7668,7 +7668,7 @@
         <v>44838</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>44838</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>44848</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>44852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>44860</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>44874</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>44879</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>44883</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8124,7 +8124,7 @@
         <v>44887</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         <v>44887</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8238,7 +8238,7 @@
         <v>44888</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8295,7 +8295,7 @@
         <v>44890</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>44896</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8409,7 +8409,7 @@
         <v>44908</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>44911</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>44911</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>44915</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>44970</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>44974</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>44977</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
         <v>44981</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44984</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>45001</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>45001</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>45001</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>45004</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>45005</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>45012</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9269,7 +9269,7 @@
         <v>45012</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9326,7 +9326,7 @@
         <v>45037</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9383,7 +9383,7 @@
         <v>45041</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9440,7 +9440,7 @@
         <v>45049</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>45050</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9554,7 +9554,7 @@
         <v>45051</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9616,7 +9616,7 @@
         <v>45051</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>45057</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
         <v>45061</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>45061</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9859,7 +9859,7 @@
         <v>45079</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9916,7 +9916,7 @@
         <v>45089</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9973,7 +9973,7 @@
         <v>45093</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10030,7 +10030,7 @@
         <v>45093</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10087,7 +10087,7 @@
         <v>45098</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10144,7 +10144,7 @@
         <v>45098</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10201,7 +10201,7 @@
         <v>45103</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10258,7 +10258,7 @@
         <v>45110</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10315,7 +10315,7 @@
         <v>45113</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10372,7 +10372,7 @@
         <v>45113</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10429,7 +10429,7 @@
         <v>45113</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10486,7 +10486,7 @@
         <v>45160</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>

--- a/Översikt HÖÖR.xlsx
+++ b/Översikt HÖÖR.xlsx
@@ -572,7 +572,7 @@
         <v>45098</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43500</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>43500</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -829,7 +829,7 @@
         <v>44281</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44434</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>44446</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>45050</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
         <v>45079</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         <v>43347</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>43437</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>43439</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>43441</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         <v>43452</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>43461</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
         <v>43476</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>43476</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>43476</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
         <v>43488</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>43490</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>43496</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1943,7 +1943,7 @@
         <v>43502</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         <v>43517</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         <v>43549</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         <v>43553</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         <v>43587</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
         <v>43602</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
         <v>43620</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2342,7 +2342,7 @@
         <v>43623</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>43640</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>43677</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>43679</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>43689</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
         <v>43693</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
         <v>43781</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>43788</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         <v>43806</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>43810</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>43861</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2969,7 +2969,7 @@
         <v>43878</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         <v>43880</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>43893</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>43909</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>43910</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3254,7 +3254,7 @@
         <v>43917</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>43920</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>43969</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>43977</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>43993</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>44055</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
         <v>44055</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         <v>44109</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>44116</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>44116</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>44116</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         <v>44117</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3938,7 +3938,7 @@
         <v>44131</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>44131</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>44131</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>44147</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>44175</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>44178</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>44178</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>44215</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>44235</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>44236</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>44245</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>44246</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>44253</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>44264</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>44264</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>44273</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>44308</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>44309</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>44371</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>44385</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>44390</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>44390</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>44403</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>44434</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5311,7 +5311,7 @@
         <v>44434</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>44434</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>44435</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>44460</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         <v>44461</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>44480</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>44490</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>44515</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>44515</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>44538</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         <v>44538</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>44551</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>44594</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>44595</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>44596</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>44596</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>44599</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>44601</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>44608</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>44621</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>44629</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>44644</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>44672</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>44672</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>44685</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>44690</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>44713</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>44734</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         <v>44734</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44741</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>44741</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>44763</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>44776</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>44798</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>44817</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>44820</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>44832</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>44838</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7497,7 +7497,7 @@
         <v>44838</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>44838</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>44838</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7668,7 +7668,7 @@
         <v>44838</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>44838</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>44848</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>44852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>44860</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>44874</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>44879</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>44883</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8124,7 +8124,7 @@
         <v>44887</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         <v>44887</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8238,7 +8238,7 @@
         <v>44888</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8295,7 +8295,7 @@
         <v>44890</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>44896</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8409,7 +8409,7 @@
         <v>44908</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>44911</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>44911</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>44915</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>44970</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>44974</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>44977</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
         <v>44981</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44984</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>45001</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>45001</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>45001</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>45004</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>45005</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>45012</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9269,7 +9269,7 @@
         <v>45012</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9326,7 +9326,7 @@
         <v>45037</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9383,7 +9383,7 @@
         <v>45041</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9440,7 +9440,7 @@
         <v>45049</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>45050</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9554,7 +9554,7 @@
         <v>45051</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9616,7 +9616,7 @@
         <v>45051</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>45057</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
         <v>45061</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>45061</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9859,7 +9859,7 @@
         <v>45079</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9916,7 +9916,7 @@
         <v>45089</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9973,7 +9973,7 @@
         <v>45093</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10030,7 +10030,7 @@
         <v>45093</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10087,7 +10087,7 @@
         <v>45098</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10144,7 +10144,7 @@
         <v>45098</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10201,7 +10201,7 @@
         <v>45103</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10258,7 +10258,7 @@
         <v>45110</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10315,7 +10315,7 @@
         <v>45113</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10372,7 +10372,7 @@
         <v>45113</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10429,7 +10429,7 @@
         <v>45113</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10486,7 +10486,7 @@
         <v>45160</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>

--- a/Översikt HÖÖR.xlsx
+++ b/Översikt HÖÖR.xlsx
@@ -572,7 +572,7 @@
         <v>45098</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43500</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>43500</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -829,7 +829,7 @@
         <v>44281</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44434</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>44446</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>45050</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
         <v>45079</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         <v>43347</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>43437</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>43439</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>43441</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         <v>43452</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>43461</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
         <v>43476</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>43476</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>43476</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
         <v>43488</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>43490</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>43496</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1943,7 +1943,7 @@
         <v>43502</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         <v>43517</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         <v>43549</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         <v>43553</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         <v>43587</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
         <v>43602</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
         <v>43620</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2342,7 +2342,7 @@
         <v>43623</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>43640</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>43677</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>43679</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>43689</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
         <v>43693</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
         <v>43781</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>43788</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         <v>43806</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>43810</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>43861</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2969,7 +2969,7 @@
         <v>43878</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         <v>43880</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>43893</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>43909</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>43910</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3254,7 +3254,7 @@
         <v>43917</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>43920</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>43969</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>43977</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>43993</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>44055</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
         <v>44055</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         <v>44109</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>44116</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>44116</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>44116</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         <v>44117</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3938,7 +3938,7 @@
         <v>44131</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>44131</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>44131</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>44147</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>44175</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>44178</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>44178</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>44215</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>44235</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>44236</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>44245</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>44246</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>44253</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>44264</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>44264</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>44273</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>44308</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>44309</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>44371</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>44385</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>44390</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>44390</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>44403</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>44434</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5311,7 +5311,7 @@
         <v>44434</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>44434</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>44435</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>44460</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         <v>44461</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>44480</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>44490</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>44515</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>44515</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>44538</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         <v>44538</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>44551</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>44594</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>44595</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>44596</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>44596</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>44599</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>44601</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>44608</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>44621</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>44629</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>44644</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>44672</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>44672</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>44685</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>44690</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>44713</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>44734</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         <v>44734</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44741</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>44741</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>44763</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>44776</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>44798</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>44817</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>44820</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>44832</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>44838</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7497,7 +7497,7 @@
         <v>44838</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>44838</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>44838</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7668,7 +7668,7 @@
         <v>44838</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>44838</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>44848</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>44852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>44860</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>44874</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>44879</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>44883</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8124,7 +8124,7 @@
         <v>44887</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         <v>44887</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8238,7 +8238,7 @@
         <v>44888</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8295,7 +8295,7 @@
         <v>44890</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>44896</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8409,7 +8409,7 @@
         <v>44908</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>44911</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>44911</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>44915</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>44970</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>44974</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>44977</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
         <v>44981</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44984</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>45001</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>45001</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>45001</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>45004</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>45005</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>45012</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9269,7 +9269,7 @@
         <v>45012</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9326,7 +9326,7 @@
         <v>45037</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9383,7 +9383,7 @@
         <v>45041</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9440,7 +9440,7 @@
         <v>45049</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>45050</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9554,7 +9554,7 @@
         <v>45051</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9616,7 +9616,7 @@
         <v>45051</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>45057</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
         <v>45061</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>45061</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9859,7 +9859,7 @@
         <v>45079</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9916,7 +9916,7 @@
         <v>45089</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9973,7 +9973,7 @@
         <v>45093</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10030,7 +10030,7 @@
         <v>45093</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10087,7 +10087,7 @@
         <v>45098</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10144,7 +10144,7 @@
         <v>45098</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10201,7 +10201,7 @@
         <v>45103</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10258,7 +10258,7 @@
         <v>45110</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10315,7 +10315,7 @@
         <v>45113</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10372,7 +10372,7 @@
         <v>45113</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10429,7 +10429,7 @@
         <v>45113</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10486,7 +10486,7 @@
         <v>45160</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>

--- a/Översikt HÖÖR.xlsx
+++ b/Översikt HÖÖR.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y171"/>
+  <dimension ref="A1:Y172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>45098</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43500</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>43500</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -829,7 +829,7 @@
         <v>44281</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44434</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>44446</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>45050</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
         <v>45079</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         <v>43347</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>43437</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>43439</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>43441</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         <v>43452</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>43461</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
         <v>43476</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>43476</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>43476</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
         <v>43488</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>43490</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>43496</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1943,7 +1943,7 @@
         <v>43502</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         <v>43517</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         <v>43549</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         <v>43553</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         <v>43587</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
         <v>43602</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
         <v>43620</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2342,7 +2342,7 @@
         <v>43623</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>43640</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>43677</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>43679</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>43689</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
         <v>43693</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
         <v>43781</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>43788</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         <v>43806</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>43810</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>43861</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2969,7 +2969,7 @@
         <v>43878</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         <v>43880</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>43893</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>43909</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>43910</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3254,7 +3254,7 @@
         <v>43917</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>43920</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>43969</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>43977</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>43993</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>44055</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
         <v>44055</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         <v>44109</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>44116</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>44116</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>44116</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         <v>44117</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3938,7 +3938,7 @@
         <v>44131</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>44131</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>44131</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>44147</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>44175</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>44178</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>44178</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>44215</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>44235</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>44236</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>44245</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>44246</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>44253</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>44264</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>44264</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>44273</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>44308</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>44309</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>44371</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>44385</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>44390</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>44390</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>44403</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>44434</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5311,7 +5311,7 @@
         <v>44434</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>44434</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>44435</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>44460</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         <v>44461</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>44480</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>44490</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>44515</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>44515</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>44538</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         <v>44538</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>44551</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>44594</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>44595</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>44596</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>44596</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>44599</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>44601</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>44608</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>44621</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>44629</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>44644</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>44672</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>44672</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>44685</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>44690</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>44713</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>44734</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         <v>44734</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44741</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>44741</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>44763</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>44776</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>44798</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>44817</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>44820</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>44832</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>44838</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7497,7 +7497,7 @@
         <v>44838</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>44838</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>44838</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7668,7 +7668,7 @@
         <v>44838</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>44838</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>44848</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>44852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>44860</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>44874</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>44879</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>44883</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8124,7 +8124,7 @@
         <v>44887</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         <v>44887</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8238,7 +8238,7 @@
         <v>44888</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8295,7 +8295,7 @@
         <v>44890</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>44896</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8409,7 +8409,7 @@
         <v>44908</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>44911</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>44911</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>44915</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>44970</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>44974</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>44977</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
         <v>44981</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44984</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>45001</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>45001</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>45001</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>45004</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>45005</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>45012</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9269,7 +9269,7 @@
         <v>45012</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9326,7 +9326,7 @@
         <v>45037</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9383,7 +9383,7 @@
         <v>45041</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9440,7 +9440,7 @@
         <v>45049</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>45050</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9554,7 +9554,7 @@
         <v>45051</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9616,7 +9616,7 @@
         <v>45051</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>45057</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
         <v>45061</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>45061</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9859,7 +9859,7 @@
         <v>45079</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9916,7 +9916,7 @@
         <v>45089</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9973,7 +9973,7 @@
         <v>45093</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10030,7 +10030,7 @@
         <v>45093</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10087,7 +10087,7 @@
         <v>45098</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10144,7 +10144,7 @@
         <v>45098</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10201,7 +10201,7 @@
         <v>45103</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10258,7 +10258,7 @@
         <v>45110</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10315,7 +10315,7 @@
         <v>45113</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10372,7 +10372,7 @@
         <v>45113</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10429,7 +10429,7 @@
         <v>45113</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10476,7 +10476,7 @@
       </c>
       <c r="R170" s="2" t="inlineStr"/>
     </row>
-    <row r="171">
+    <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
           <t>A 38139-2023</t>
@@ -10486,7 +10486,7 @@
         <v>45160</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10532,6 +10532,63 @@
         <v>0</v>
       </c>
       <c r="R171" s="2" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>A 42937-2023</t>
+        </is>
+      </c>
+      <c r="B172" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="C172" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G172" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="n">
+        <v>0</v>
+      </c>
+      <c r="L172" t="n">
+        <v>0</v>
+      </c>
+      <c r="M172" t="n">
+        <v>0</v>
+      </c>
+      <c r="N172" t="n">
+        <v>0</v>
+      </c>
+      <c r="O172" t="n">
+        <v>0</v>
+      </c>
+      <c r="P172" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q172" t="n">
+        <v>0</v>
+      </c>
+      <c r="R172" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt HÖÖR.xlsx
+++ b/Översikt HÖÖR.xlsx
@@ -572,7 +572,7 @@
         <v>45098</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -625,27 +625,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/artfynd/A 27902-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/artfynd/A 27902-2023.xlsx", "A 27902-2023")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/kartor/A 27902-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/kartor/A 27902-2023.png", "A 27902-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/klagomål/A 27902-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/klagomål/A 27902-2023.docx", "A 27902-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/klagomålsmail/A 27902-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/klagomålsmail/A 27902-2023.docx", "A 27902-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/tillsyn/A 27902-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/tillsyn/A 27902-2023.docx", "A 27902-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/tillsynsmail/A 27902-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/tillsynsmail/A 27902-2023.docx", "A 27902-2023")</f>
         <v/>
       </c>
     </row>
@@ -659,7 +659,7 @@
         <v>43500</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -710,27 +710,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/artfynd/A 8457-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/artfynd/A 8457-2019.xlsx", "A 8457-2019")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/kartor/A 8457-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/kartor/A 8457-2019.png", "A 8457-2019")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/klagomål/A 8457-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/klagomål/A 8457-2019.docx", "A 8457-2019")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/klagomålsmail/A 8457-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/klagomålsmail/A 8457-2019.docx", "A 8457-2019")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/tillsyn/A 8457-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/tillsyn/A 8457-2019.docx", "A 8457-2019")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/tillsynsmail/A 8457-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/tillsynsmail/A 8457-2019.docx", "A 8457-2019")</f>
         <v/>
       </c>
     </row>
@@ -744,7 +744,7 @@
         <v>43500</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -795,27 +795,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/artfynd/A 8446-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/artfynd/A 8446-2019.xlsx", "A 8446-2019")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/kartor/A 8446-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/kartor/A 8446-2019.png", "A 8446-2019")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/klagomål/A 8446-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/klagomål/A 8446-2019.docx", "A 8446-2019")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/klagomålsmail/A 8446-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/klagomålsmail/A 8446-2019.docx", "A 8446-2019")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/tillsyn/A 8446-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/tillsyn/A 8446-2019.docx", "A 8446-2019")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/tillsynsmail/A 8446-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/tillsynsmail/A 8446-2019.docx", "A 8446-2019")</f>
         <v/>
       </c>
     </row>
@@ -829,7 +829,7 @@
         <v>44281</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -880,27 +880,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/artfynd/A 15070-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/artfynd/A 15070-2021.xlsx", "A 15070-2021")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/kartor/A 15070-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/kartor/A 15070-2021.png", "A 15070-2021")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/klagomål/A 15070-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/klagomål/A 15070-2021.docx", "A 15070-2021")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/klagomålsmail/A 15070-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/klagomålsmail/A 15070-2021.docx", "A 15070-2021")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/tillsyn/A 15070-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/tillsyn/A 15070-2021.docx", "A 15070-2021")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/tillsynsmail/A 15070-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/tillsynsmail/A 15070-2021.docx", "A 15070-2021")</f>
         <v/>
       </c>
     </row>
@@ -914,7 +914,7 @@
         <v>44434</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -965,27 +965,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/artfynd/A 44327-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/artfynd/A 44327-2021.xlsx", "A 44327-2021")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/kartor/A 44327-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/kartor/A 44327-2021.png", "A 44327-2021")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/klagomål/A 44327-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/klagomål/A 44327-2021.docx", "A 44327-2021")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/klagomålsmail/A 44327-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/klagomålsmail/A 44327-2021.docx", "A 44327-2021")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/tillsyn/A 44327-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/tillsyn/A 44327-2021.docx", "A 44327-2021")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/tillsynsmail/A 44327-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/tillsynsmail/A 44327-2021.docx", "A 44327-2021")</f>
         <v/>
       </c>
     </row>
@@ -999,7 +999,7 @@
         <v>44446</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1050,27 +1050,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/artfynd/A 46919-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/artfynd/A 46919-2021.xlsx", "A 46919-2021")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/kartor/A 46919-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/kartor/A 46919-2021.png", "A 46919-2021")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/klagomål/A 46919-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/klagomål/A 46919-2021.docx", "A 46919-2021")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/klagomålsmail/A 46919-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/klagomålsmail/A 46919-2021.docx", "A 46919-2021")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/tillsyn/A 46919-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/tillsyn/A 46919-2021.docx", "A 46919-2021")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/tillsynsmail/A 46919-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/tillsynsmail/A 46919-2021.docx", "A 46919-2021")</f>
         <v/>
       </c>
     </row>
@@ -1084,7 +1084,7 @@
         <v>45050</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1135,27 +1135,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/artfynd/A 19517-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/artfynd/A 19517-2023.xlsx", "A 19517-2023")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/kartor/A 19517-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/kartor/A 19517-2023.png", "A 19517-2023")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/klagomål/A 19517-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/klagomål/A 19517-2023.docx", "A 19517-2023")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/klagomålsmail/A 19517-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/klagomålsmail/A 19517-2023.docx", "A 19517-2023")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/tillsyn/A 19517-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/tillsyn/A 19517-2023.docx", "A 19517-2023")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/tillsynsmail/A 19517-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/tillsynsmail/A 19517-2023.docx", "A 19517-2023")</f>
         <v/>
       </c>
     </row>
@@ -1169,7 +1169,7 @@
         <v>45079</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1220,27 +1220,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/artfynd/A 24278-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/artfynd/A 24278-2023.xlsx", "A 24278-2023")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/kartor/A 24278-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/kartor/A 24278-2023.png", "A 24278-2023")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/klagomål/A 24278-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/klagomål/A 24278-2023.docx", "A 24278-2023")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/klagomålsmail/A 24278-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/klagomålsmail/A 24278-2023.docx", "A 24278-2023")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/tillsyn/A 24278-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/tillsyn/A 24278-2023.docx", "A 24278-2023")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/tillsynsmail/A 24278-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HOOR/tillsynsmail/A 24278-2023.docx", "A 24278-2023")</f>
         <v/>
       </c>
     </row>
@@ -1254,7 +1254,7 @@
         <v>43347</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>43437</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>43439</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>43441</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         <v>43452</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>43461</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
         <v>43476</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>43476</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>43476</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
         <v>43488</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>43490</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>43496</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1943,7 +1943,7 @@
         <v>43502</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         <v>43517</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         <v>43549</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         <v>43553</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         <v>43587</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
         <v>43602</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
         <v>43620</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2342,7 +2342,7 @@
         <v>43623</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>43640</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>43677</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>43679</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>43689</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
         <v>43693</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
         <v>43781</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>43788</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         <v>43806</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>43810</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>43861</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2969,7 +2969,7 @@
         <v>43878</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         <v>43880</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>43893</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>43909</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>43910</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3254,7 +3254,7 @@
         <v>43917</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>43920</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>43969</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>43977</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>43993</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>44055</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
         <v>44055</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         <v>44109</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>44116</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>44116</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>44116</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         <v>44117</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3938,7 +3938,7 @@
         <v>44131</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>44131</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>44131</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>44147</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>44175</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>44178</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>44178</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>44215</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>44235</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>44236</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>44245</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>44246</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>44253</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>44264</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>44264</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>44273</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>44308</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>44309</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>44371</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>44385</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>44390</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>44390</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>44403</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>44434</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5311,7 +5311,7 @@
         <v>44434</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>44434</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>44435</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>44460</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         <v>44461</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>44480</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>44490</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>44515</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>44515</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>44538</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         <v>44538</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>44551</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>44594</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>44595</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>44596</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>44596</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>44599</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>44601</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>44608</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>44621</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>44629</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>44644</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>44672</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>44672</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>44685</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>44690</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>44713</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>44734</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         <v>44734</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44741</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>44741</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>44763</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>44776</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>44798</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>44817</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>44820</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>44832</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>44838</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7497,7 +7497,7 @@
         <v>44838</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>44838</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>44838</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7668,7 +7668,7 @@
         <v>44838</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>44838</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>44848</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>44852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>44860</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>44874</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>44879</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>44883</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8124,7 +8124,7 @@
         <v>44887</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         <v>44887</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8238,7 +8238,7 @@
         <v>44888</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8295,7 +8295,7 @@
         <v>44890</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>44896</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8409,7 +8409,7 @@
         <v>44908</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>44911</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>44911</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>44915</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>44970</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>44974</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>44977</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
         <v>44981</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44984</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>45001</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>45001</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>45001</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>45004</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>45005</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>45012</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9269,7 +9269,7 @@
         <v>45012</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9326,7 +9326,7 @@
         <v>45037</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9383,7 +9383,7 @@
         <v>45041</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9440,7 +9440,7 @@
         <v>45049</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>45050</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9554,7 +9554,7 @@
         <v>45051</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9616,7 +9616,7 @@
         <v>45051</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>45057</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
         <v>45061</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>45061</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9859,7 +9859,7 @@
         <v>45079</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9916,7 +9916,7 @@
         <v>45089</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9973,7 +9973,7 @@
         <v>45093</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10030,7 +10030,7 @@
         <v>45093</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10087,7 +10087,7 @@
         <v>45098</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10144,7 +10144,7 @@
         <v>45098</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10201,7 +10201,7 @@
         <v>45103</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10258,7 +10258,7 @@
         <v>45110</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10315,7 +10315,7 @@
         <v>45113</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10372,7 +10372,7 @@
         <v>45113</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10429,7 +10429,7 @@
         <v>45113</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10486,7 +10486,7 @@
         <v>45160</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10543,7 +10543,7 @@
         <v>45182</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>

--- a/Översikt HÖÖR.xlsx
+++ b/Översikt HÖÖR.xlsx
@@ -572,7 +572,7 @@
         <v>45098</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43500</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>43500</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -829,7 +829,7 @@
         <v>44281</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44434</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>44446</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>45050</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
         <v>45079</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         <v>43347</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>43437</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>43439</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>43441</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         <v>43452</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>43461</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
         <v>43476</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>43476</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>43476</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
         <v>43488</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>43490</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>43496</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1943,7 +1943,7 @@
         <v>43502</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         <v>43517</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         <v>43549</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         <v>43553</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         <v>43587</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
         <v>43602</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
         <v>43620</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2342,7 +2342,7 @@
         <v>43623</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>43640</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>43677</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>43679</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>43689</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
         <v>43693</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
         <v>43781</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>43788</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         <v>43806</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>43810</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>43861</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2969,7 +2969,7 @@
         <v>43878</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         <v>43880</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>43893</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>43909</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>43910</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3254,7 +3254,7 @@
         <v>43917</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>43920</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>43969</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>43977</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>43993</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>44055</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
         <v>44055</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         <v>44109</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>44116</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>44116</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>44116</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         <v>44117</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3938,7 +3938,7 @@
         <v>44131</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>44131</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>44131</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>44147</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>44175</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>44178</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>44178</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>44215</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>44235</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>44236</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>44245</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>44246</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>44253</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>44264</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>44264</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>44273</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>44308</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>44309</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>44371</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>44385</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>44390</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>44390</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>44403</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>44434</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5311,7 +5311,7 @@
         <v>44434</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>44434</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>44435</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>44460</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         <v>44461</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>44480</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>44490</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>44515</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>44515</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>44538</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         <v>44538</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>44551</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>44594</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>44595</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>44596</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>44596</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>44599</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>44601</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>44608</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>44621</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>44629</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>44644</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>44672</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>44672</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>44685</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>44690</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>44713</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>44734</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         <v>44734</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44741</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>44741</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>44763</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>44776</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>44798</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>44817</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>44820</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>44832</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>44838</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7497,7 +7497,7 @@
         <v>44838</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>44838</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>44838</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7668,7 +7668,7 @@
         <v>44838</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>44838</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>44848</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>44852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>44860</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>44874</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>44879</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>44883</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8124,7 +8124,7 @@
         <v>44887</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         <v>44887</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8238,7 +8238,7 @@
         <v>44888</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8295,7 +8295,7 @@
         <v>44890</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>44896</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8409,7 +8409,7 @@
         <v>44908</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>44911</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>44911</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>44915</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>44970</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>44974</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>44977</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
         <v>44981</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44984</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>45001</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>45001</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>45001</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>45004</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>45005</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>45012</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9269,7 +9269,7 @@
         <v>45012</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9326,7 +9326,7 @@
         <v>45037</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9383,7 +9383,7 @@
         <v>45041</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9440,7 +9440,7 @@
         <v>45049</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>45050</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9554,7 +9554,7 @@
         <v>45051</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9616,7 +9616,7 @@
         <v>45051</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>45057</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
         <v>45061</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>45061</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9859,7 +9859,7 @@
         <v>45079</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9916,7 +9916,7 @@
         <v>45089</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9973,7 +9973,7 @@
         <v>45093</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10030,7 +10030,7 @@
         <v>45093</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10087,7 +10087,7 @@
         <v>45098</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10144,7 +10144,7 @@
         <v>45098</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10201,7 +10201,7 @@
         <v>45103</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10258,7 +10258,7 @@
         <v>45110</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10315,7 +10315,7 @@
         <v>45113</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10372,7 +10372,7 @@
         <v>45113</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10429,7 +10429,7 @@
         <v>45113</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10486,7 +10486,7 @@
         <v>45160</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10543,7 +10543,7 @@
         <v>45182</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>

--- a/Översikt HÖÖR.xlsx
+++ b/Översikt HÖÖR.xlsx
@@ -572,7 +572,7 @@
         <v>45098</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43500</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>43500</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -829,7 +829,7 @@
         <v>44281</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44434</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>44446</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>45050</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
         <v>45079</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         <v>43347</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>43437</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>43439</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>43441</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         <v>43452</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>43461</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
         <v>43476</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>43476</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>43476</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
         <v>43488</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>43490</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>43496</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1943,7 +1943,7 @@
         <v>43502</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         <v>43517</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         <v>43549</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         <v>43553</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         <v>43587</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
         <v>43602</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
         <v>43620</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2342,7 +2342,7 @@
         <v>43623</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>43640</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>43677</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>43679</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>43689</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
         <v>43693</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
         <v>43781</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>43788</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         <v>43806</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>43810</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>43861</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2969,7 +2969,7 @@
         <v>43878</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         <v>43880</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>43893</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>43909</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>43910</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3254,7 +3254,7 @@
         <v>43917</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>43920</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>43969</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>43977</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>43993</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>44055</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
         <v>44055</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         <v>44109</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>44116</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>44116</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>44116</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         <v>44117</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3938,7 +3938,7 @@
         <v>44131</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>44131</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>44131</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>44147</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>44175</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>44178</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>44178</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>44215</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>44235</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>44236</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>44245</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>44246</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>44253</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>44264</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>44264</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>44273</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>44308</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>44309</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>44371</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>44385</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>44390</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>44390</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>44403</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>44434</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5311,7 +5311,7 @@
         <v>44434</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>44434</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>44435</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>44460</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         <v>44461</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>44480</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>44490</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>44515</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>44515</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>44538</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         <v>44538</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>44551</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>44594</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>44595</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>44596</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>44596</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>44599</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>44601</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>44608</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>44621</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>44629</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>44644</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>44672</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>44672</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>44685</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>44690</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>44713</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>44734</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         <v>44734</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44741</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>44741</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>44763</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>44776</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>44798</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>44817</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>44820</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>44832</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>44838</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7497,7 +7497,7 @@
         <v>44838</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>44838</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>44838</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7668,7 +7668,7 @@
         <v>44838</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>44838</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>44848</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>44852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>44860</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>44874</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>44879</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>44883</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8124,7 +8124,7 @@
         <v>44887</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         <v>44887</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8238,7 +8238,7 @@
         <v>44888</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8295,7 +8295,7 @@
         <v>44890</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>44896</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8409,7 +8409,7 @@
         <v>44908</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>44911</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>44911</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>44915</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>44970</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>44974</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>44977</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
         <v>44981</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44984</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>45001</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>45001</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>45001</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>45004</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>45005</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>45012</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9269,7 +9269,7 @@
         <v>45012</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9326,7 +9326,7 @@
         <v>45037</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9383,7 +9383,7 @@
         <v>45041</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9440,7 +9440,7 @@
         <v>45049</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>45050</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9554,7 +9554,7 @@
         <v>45051</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9616,7 +9616,7 @@
         <v>45051</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>45057</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
         <v>45061</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>45061</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9859,7 +9859,7 @@
         <v>45079</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9916,7 +9916,7 @@
         <v>45089</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9973,7 +9973,7 @@
         <v>45093</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10030,7 +10030,7 @@
         <v>45093</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10087,7 +10087,7 @@
         <v>45098</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10144,7 +10144,7 @@
         <v>45098</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10201,7 +10201,7 @@
         <v>45103</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10258,7 +10258,7 @@
         <v>45110</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10315,7 +10315,7 @@
         <v>45113</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10372,7 +10372,7 @@
         <v>45113</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10429,7 +10429,7 @@
         <v>45113</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10486,7 +10486,7 @@
         <v>45160</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10543,7 +10543,7 @@
         <v>45182</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>

--- a/Översikt HÖÖR.xlsx
+++ b/Översikt HÖÖR.xlsx
@@ -572,7 +572,7 @@
         <v>45098</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43500</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>43500</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -829,7 +829,7 @@
         <v>44281</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44434</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>44446</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>45050</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
         <v>45079</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         <v>43347</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>43437</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>43439</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>43441</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         <v>43452</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>43461</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
         <v>43476</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>43476</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>43476</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
         <v>43488</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>43490</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>43496</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1943,7 +1943,7 @@
         <v>43502</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         <v>43517</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         <v>43549</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         <v>43553</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         <v>43587</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
         <v>43602</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
         <v>43620</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2342,7 +2342,7 @@
         <v>43623</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>43640</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>43677</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>43679</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>43689</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
         <v>43693</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
         <v>43781</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>43788</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         <v>43806</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>43810</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>43861</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2969,7 +2969,7 @@
         <v>43878</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         <v>43880</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>43893</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>43909</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>43910</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3254,7 +3254,7 @@
         <v>43917</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>43920</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>43969</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>43977</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>43993</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>44055</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
         <v>44055</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         <v>44109</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>44116</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>44116</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>44116</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         <v>44117</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3938,7 +3938,7 @@
         <v>44131</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>44131</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>44131</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>44147</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>44175</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>44178</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>44178</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>44215</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>44235</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>44236</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>44245</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>44246</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>44253</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>44264</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>44264</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>44273</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>44308</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>44309</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>44371</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>44385</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>44390</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>44390</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>44403</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>44434</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5311,7 +5311,7 @@
         <v>44434</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>44434</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>44435</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>44460</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         <v>44461</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>44480</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>44490</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>44515</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>44515</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>44538</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         <v>44538</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>44551</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>44594</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>44595</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>44596</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>44596</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>44599</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>44601</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>44608</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>44621</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>44629</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>44644</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>44672</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>44672</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>44685</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>44690</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>44713</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>44734</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         <v>44734</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44741</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>44741</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>44763</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>44776</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>44798</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>44817</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>44820</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>44832</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>44838</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7497,7 +7497,7 @@
         <v>44838</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>44838</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>44838</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7668,7 +7668,7 @@
         <v>44838</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>44838</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>44848</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>44852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>44860</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>44874</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>44879</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>44883</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8124,7 +8124,7 @@
         <v>44887</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         <v>44887</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8238,7 +8238,7 @@
         <v>44888</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8295,7 +8295,7 @@
         <v>44890</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>44896</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8409,7 +8409,7 @@
         <v>44908</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>44911</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>44911</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>44915</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>44970</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>44974</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>44977</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
         <v>44981</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44984</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>45001</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>45001</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>45001</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>45004</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>45005</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>45012</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9269,7 +9269,7 @@
         <v>45012</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9326,7 +9326,7 @@
         <v>45037</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9383,7 +9383,7 @@
         <v>45041</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9440,7 +9440,7 @@
         <v>45049</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>45050</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9554,7 +9554,7 @@
         <v>45051</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9616,7 +9616,7 @@
         <v>45051</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>45057</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
         <v>45061</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>45061</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9859,7 +9859,7 @@
         <v>45079</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9916,7 +9916,7 @@
         <v>45089</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9973,7 +9973,7 @@
         <v>45093</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10030,7 +10030,7 @@
         <v>45093</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10087,7 +10087,7 @@
         <v>45098</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10144,7 +10144,7 @@
         <v>45098</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10201,7 +10201,7 @@
         <v>45103</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10258,7 +10258,7 @@
         <v>45110</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10315,7 +10315,7 @@
         <v>45113</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10372,7 +10372,7 @@
         <v>45113</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10429,7 +10429,7 @@
         <v>45113</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10486,7 +10486,7 @@
         <v>45160</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10543,7 +10543,7 @@
         <v>45182</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>

--- a/Översikt HÖÖR.xlsx
+++ b/Översikt HÖÖR.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y172"/>
+  <dimension ref="A1:Y173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>45098</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43500</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>43500</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -829,7 +829,7 @@
         <v>44281</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44434</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>44446</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>45050</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
         <v>45079</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         <v>43347</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>43437</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>43439</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>43441</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         <v>43452</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>43461</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
         <v>43476</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>43476</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>43476</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
         <v>43488</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>43490</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>43496</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1943,7 +1943,7 @@
         <v>43502</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         <v>43517</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         <v>43549</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         <v>43553</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         <v>43587</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
         <v>43602</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
         <v>43620</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2342,7 +2342,7 @@
         <v>43623</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>43640</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>43677</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>43679</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>43689</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
         <v>43693</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
         <v>43781</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>43788</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         <v>43806</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>43810</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>43861</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2969,7 +2969,7 @@
         <v>43878</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         <v>43880</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>43893</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>43909</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>43910</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3254,7 +3254,7 @@
         <v>43917</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>43920</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>43969</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>43977</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>43993</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>44055</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
         <v>44055</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         <v>44109</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>44116</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>44116</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>44116</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         <v>44117</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3938,7 +3938,7 @@
         <v>44131</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>44131</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>44131</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>44147</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>44175</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>44178</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>44178</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>44215</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>44235</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>44236</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>44245</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>44246</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>44253</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>44264</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>44264</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>44273</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>44308</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>44309</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>44371</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>44385</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>44390</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>44390</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>44403</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>44434</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5311,7 +5311,7 @@
         <v>44434</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>44434</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>44435</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>44460</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         <v>44461</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>44480</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>44490</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>44515</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>44515</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>44538</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         <v>44538</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>44551</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>44594</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>44595</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>44596</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>44596</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>44599</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>44601</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>44608</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>44621</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>44629</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>44644</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>44672</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>44672</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>44685</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>44690</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>44713</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>44734</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         <v>44734</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44741</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>44741</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>44763</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>44776</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>44798</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>44817</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>44820</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>44832</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>44838</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7497,7 +7497,7 @@
         <v>44838</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>44838</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>44838</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7668,7 +7668,7 @@
         <v>44838</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>44838</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>44848</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>44852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>44860</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>44874</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>44879</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>44883</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8124,7 +8124,7 @@
         <v>44887</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         <v>44887</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8238,7 +8238,7 @@
         <v>44888</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8295,7 +8295,7 @@
         <v>44890</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>44896</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8409,7 +8409,7 @@
         <v>44908</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>44911</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>44911</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>44915</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>44970</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>44974</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>44977</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
         <v>44981</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44984</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>45001</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>45001</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>45001</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>45004</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>45005</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>45012</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9269,7 +9269,7 @@
         <v>45012</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9326,7 +9326,7 @@
         <v>45037</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9383,7 +9383,7 @@
         <v>45041</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9440,7 +9440,7 @@
         <v>45049</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>45050</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9554,7 +9554,7 @@
         <v>45051</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9616,7 +9616,7 @@
         <v>45051</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>45057</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
         <v>45061</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>45061</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9859,7 +9859,7 @@
         <v>45079</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9916,7 +9916,7 @@
         <v>45089</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9973,7 +9973,7 @@
         <v>45093</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10030,7 +10030,7 @@
         <v>45093</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10087,7 +10087,7 @@
         <v>45098</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10144,7 +10144,7 @@
         <v>45098</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10201,7 +10201,7 @@
         <v>45103</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10258,7 +10258,7 @@
         <v>45110</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10315,7 +10315,7 @@
         <v>45113</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10372,7 +10372,7 @@
         <v>45113</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10429,7 +10429,7 @@
         <v>45113</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10486,7 +10486,7 @@
         <v>45160</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10533,7 +10533,7 @@
       </c>
       <c r="R171" s="2" t="inlineStr"/>
     </row>
-    <row r="172">
+    <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
           <t>A 42937-2023</t>
@@ -10543,7 +10543,7 @@
         <v>45182</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10589,6 +10589,63 @@
         <v>0</v>
       </c>
       <c r="R172" s="2" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>A 44960-2023</t>
+        </is>
+      </c>
+      <c r="B173" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="C173" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>HÖÖR</t>
+        </is>
+      </c>
+      <c r="G173" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="n">
+        <v>0</v>
+      </c>
+      <c r="L173" t="n">
+        <v>0</v>
+      </c>
+      <c r="M173" t="n">
+        <v>0</v>
+      </c>
+      <c r="N173" t="n">
+        <v>0</v>
+      </c>
+      <c r="O173" t="n">
+        <v>0</v>
+      </c>
+      <c r="P173" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q173" t="n">
+        <v>0</v>
+      </c>
+      <c r="R173" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt HÖÖR.xlsx
+++ b/Översikt HÖÖR.xlsx
@@ -572,7 +572,7 @@
         <v>45098</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43500</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>43500</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -829,7 +829,7 @@
         <v>44281</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44434</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>44446</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>45050</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
         <v>45079</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         <v>43347</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>43437</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>43439</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>43441</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         <v>43452</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>43461</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
         <v>43476</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>43476</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>43476</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
         <v>43488</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>43490</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>43496</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1943,7 +1943,7 @@
         <v>43502</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         <v>43517</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         <v>43549</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         <v>43553</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         <v>43587</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
         <v>43602</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
         <v>43620</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2342,7 +2342,7 @@
         <v>43623</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>43640</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>43677</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>43679</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>43689</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
         <v>43693</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
         <v>43781</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>43788</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         <v>43806</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>43810</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>43861</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2969,7 +2969,7 @@
         <v>43878</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         <v>43880</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>43893</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>43909</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>43910</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3254,7 +3254,7 @@
         <v>43917</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>43920</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>43969</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>43977</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>43993</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>44055</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
         <v>44055</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         <v>44109</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>44116</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>44116</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>44116</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         <v>44117</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3938,7 +3938,7 @@
         <v>44131</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>44131</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>44131</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>44147</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>44175</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>44178</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>44178</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>44215</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>44235</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>44236</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>44245</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>44246</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>44253</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>44264</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>44264</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>44273</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>44308</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>44309</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>44371</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>44385</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>44390</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>44390</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>44403</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>44434</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5311,7 +5311,7 @@
         <v>44434</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>44434</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>44435</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>44460</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         <v>44461</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>44480</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>44490</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>44515</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>44515</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>44538</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         <v>44538</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>44551</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>44594</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>44595</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>44596</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>44596</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>44599</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>44601</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>44608</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>44621</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>44629</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>44644</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>44672</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>44672</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>44685</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>44690</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>44713</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>44734</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         <v>44734</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44741</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>44741</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>44763</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>44776</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>44798</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>44817</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>44820</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>44832</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>44838</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7497,7 +7497,7 @@
         <v>44838</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>44838</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>44838</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7668,7 +7668,7 @@
         <v>44838</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>44838</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>44848</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>44852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>44860</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>44874</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>44879</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>44883</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8124,7 +8124,7 @@
         <v>44887</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         <v>44887</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8238,7 +8238,7 @@
         <v>44888</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8295,7 +8295,7 @@
         <v>44890</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>44896</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8409,7 +8409,7 @@
         <v>44908</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>44911</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>44911</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>44915</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>44970</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>44974</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>44977</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
         <v>44981</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44984</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>45001</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>45001</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>45001</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>45004</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>45005</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>45012</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9269,7 +9269,7 @@
         <v>45012</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9326,7 +9326,7 @@
         <v>45037</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9383,7 +9383,7 @@
         <v>45041</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9440,7 +9440,7 @@
         <v>45049</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>45050</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9554,7 +9554,7 @@
         <v>45051</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9616,7 +9616,7 @@
         <v>45051</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>45057</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
         <v>45061</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>45061</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9859,7 +9859,7 @@
         <v>45079</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9916,7 +9916,7 @@
         <v>45089</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9973,7 +9973,7 @@
         <v>45093</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10030,7 +10030,7 @@
         <v>45093</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10087,7 +10087,7 @@
         <v>45098</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10144,7 +10144,7 @@
         <v>45098</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10201,7 +10201,7 @@
         <v>45103</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10258,7 +10258,7 @@
         <v>45110</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10315,7 +10315,7 @@
         <v>45113</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10372,7 +10372,7 @@
         <v>45113</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10429,7 +10429,7 @@
         <v>45113</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10486,7 +10486,7 @@
         <v>45160</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10543,7 +10543,7 @@
         <v>45182</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10600,7 +10600,7 @@
         <v>45190</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>

--- a/Översikt HÖÖR.xlsx
+++ b/Översikt HÖÖR.xlsx
@@ -572,7 +572,7 @@
         <v>45098</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43500</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>43500</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -829,7 +829,7 @@
         <v>44281</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44434</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>44446</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>45050</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
         <v>45079</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         <v>43347</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>43437</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>43439</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>43441</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         <v>43452</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>43461</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
         <v>43476</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>43476</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>43476</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
         <v>43488</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>43490</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>43496</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1943,7 +1943,7 @@
         <v>43502</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         <v>43517</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         <v>43549</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         <v>43553</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         <v>43587</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
         <v>43602</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
         <v>43620</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2342,7 +2342,7 @@
         <v>43623</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>43640</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>43677</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>43679</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>43689</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
         <v>43693</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
         <v>43781</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>43788</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         <v>43806</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>43810</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>43861</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2969,7 +2969,7 @@
         <v>43878</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         <v>43880</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>43893</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>43909</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>43910</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3254,7 +3254,7 @@
         <v>43917</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>43920</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>43969</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>43977</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>43993</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>44055</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
         <v>44055</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         <v>44109</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>44116</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>44116</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>44116</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         <v>44117</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3938,7 +3938,7 @@
         <v>44131</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>44131</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>44131</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>44147</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>44175</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>44178</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>44178</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>44215</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>44235</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>44236</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>44245</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>44246</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>44253</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>44264</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>44264</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>44273</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>44308</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>44309</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>44371</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>44385</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>44390</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>44390</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>44403</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>44434</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5311,7 +5311,7 @@
         <v>44434</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>44434</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>44435</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>44460</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         <v>44461</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>44480</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>44490</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>44515</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>44515</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>44538</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         <v>44538</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>44551</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>44594</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>44595</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>44596</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>44596</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>44599</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>44601</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>44608</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>44621</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>44629</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>44644</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>44672</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>44672</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>44685</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>44690</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>44713</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>44734</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         <v>44734</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44741</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>44741</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>44763</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>44776</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>44798</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>44817</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>44820</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>44832</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>44838</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7497,7 +7497,7 @@
         <v>44838</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>44838</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>44838</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7668,7 +7668,7 @@
         <v>44838</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>44838</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>44848</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>44852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>44860</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>44874</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>44879</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>44883</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8124,7 +8124,7 @@
         <v>44887</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         <v>44887</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8238,7 +8238,7 @@
         <v>44888</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8295,7 +8295,7 @@
         <v>44890</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>44896</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8409,7 +8409,7 @@
         <v>44908</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>44911</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>44911</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>44915</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>44970</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>44974</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>44977</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
         <v>44981</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44984</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>45001</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>45001</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>45001</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>45004</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>45005</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>45012</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9269,7 +9269,7 @@
         <v>45012</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9326,7 +9326,7 @@
         <v>45037</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9383,7 +9383,7 @@
         <v>45041</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9440,7 +9440,7 @@
         <v>45049</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>45050</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9554,7 +9554,7 @@
         <v>45051</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9616,7 +9616,7 @@
         <v>45051</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>45057</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
         <v>45061</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>45061</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9859,7 +9859,7 @@
         <v>45079</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9916,7 +9916,7 @@
         <v>45089</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9973,7 +9973,7 @@
         <v>45093</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10030,7 +10030,7 @@
         <v>45093</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10087,7 +10087,7 @@
         <v>45098</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10144,7 +10144,7 @@
         <v>45098</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10201,7 +10201,7 @@
         <v>45103</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10258,7 +10258,7 @@
         <v>45110</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10315,7 +10315,7 @@
         <v>45113</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10372,7 +10372,7 @@
         <v>45113</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10429,7 +10429,7 @@
         <v>45113</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10486,7 +10486,7 @@
         <v>45160</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10543,7 +10543,7 @@
         <v>45182</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10600,7 +10600,7 @@
         <v>45190</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>

--- a/Översikt HÖÖR.xlsx
+++ b/Översikt HÖÖR.xlsx
@@ -572,7 +572,7 @@
         <v>45098</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43500</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>43500</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -829,7 +829,7 @@
         <v>44281</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44434</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>44446</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>45050</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
         <v>45079</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         <v>43347</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>43437</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>43439</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>43441</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         <v>43452</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>43461</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
         <v>43476</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>43476</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>43476</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
         <v>43488</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>43490</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>43496</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1943,7 +1943,7 @@
         <v>43502</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         <v>43517</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         <v>43549</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         <v>43553</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         <v>43587</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
         <v>43602</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
         <v>43620</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2342,7 +2342,7 @@
         <v>43623</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>43640</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>43677</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>43679</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>43689</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
         <v>43693</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
         <v>43781</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>43788</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         <v>43806</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>43810</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>43861</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2969,7 +2969,7 @@
         <v>43878</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         <v>43880</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>43893</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>43909</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>43910</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3254,7 +3254,7 @@
         <v>43917</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>43920</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>43969</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>43977</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>43993</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>44055</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
         <v>44055</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         <v>44109</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>44116</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>44116</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>44116</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         <v>44117</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3938,7 +3938,7 @@
         <v>44131</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>44131</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>44131</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>44147</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>44175</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>44178</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>44178</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>44215</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>44235</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>44236</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>44245</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>44246</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>44253</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>44264</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>44264</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>44273</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>44308</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>44309</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>44371</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>44385</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>44390</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>44390</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>44403</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>44434</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5311,7 +5311,7 @@
         <v>44434</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>44434</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>44435</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>44460</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         <v>44461</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>44480</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>44490</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>44515</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>44515</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>44538</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         <v>44538</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>44551</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>44594</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>44595</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>44596</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>44596</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>44599</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>44601</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>44608</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>44621</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>44629</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>44644</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>44672</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>44672</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>44685</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>44690</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>44713</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>44734</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         <v>44734</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44741</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>44741</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>44763</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>44776</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>44798</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>44817</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>44820</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>44832</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>44838</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7497,7 +7497,7 @@
         <v>44838</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>44838</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>44838</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7668,7 +7668,7 @@
         <v>44838</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>44838</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>44848</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>44852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>44860</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>44874</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>44879</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>44883</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8124,7 +8124,7 @@
         <v>44887</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         <v>44887</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8238,7 +8238,7 @@
         <v>44888</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8295,7 +8295,7 @@
         <v>44890</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>44896</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8409,7 +8409,7 @@
         <v>44908</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>44911</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>44911</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>44915</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>44970</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>44974</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>44977</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
         <v>44981</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44984</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>45001</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>45001</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>45001</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>45004</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>45005</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>45012</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9269,7 +9269,7 @@
         <v>45012</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9326,7 +9326,7 @@
         <v>45037</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9383,7 +9383,7 @@
         <v>45041</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9440,7 +9440,7 @@
         <v>45049</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>45050</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9554,7 +9554,7 @@
         <v>45051</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9616,7 +9616,7 @@
         <v>45051</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>45057</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
         <v>45061</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>45061</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9859,7 +9859,7 @@
         <v>45079</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9916,7 +9916,7 @@
         <v>45089</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9973,7 +9973,7 @@
         <v>45093</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10030,7 +10030,7 @@
         <v>45093</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10087,7 +10087,7 @@
         <v>45098</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10144,7 +10144,7 @@
         <v>45098</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10201,7 +10201,7 @@
         <v>45103</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10258,7 +10258,7 @@
         <v>45110</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10315,7 +10315,7 @@
         <v>45113</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10372,7 +10372,7 @@
         <v>45113</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10429,7 +10429,7 @@
         <v>45113</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10486,7 +10486,7 @@
         <v>45160</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10543,7 +10543,7 @@
         <v>45182</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10600,7 +10600,7 @@
         <v>45190</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>

--- a/Översikt HÖÖR.xlsx
+++ b/Översikt HÖÖR.xlsx
@@ -572,7 +572,7 @@
         <v>45098</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43500</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>43500</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -829,7 +829,7 @@
         <v>44281</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44434</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>44446</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>45050</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
         <v>45079</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         <v>43347</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>43437</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>43439</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>43441</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         <v>43452</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>43461</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
         <v>43476</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>43476</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>43476</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
         <v>43488</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>43490</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>43496</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1943,7 +1943,7 @@
         <v>43502</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         <v>43517</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         <v>43549</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         <v>43553</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         <v>43587</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
         <v>43602</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
         <v>43620</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2342,7 +2342,7 @@
         <v>43623</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>43640</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>43677</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>43679</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>43689</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
         <v>43693</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
         <v>43781</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>43788</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         <v>43806</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>43810</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>43861</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2969,7 +2969,7 @@
         <v>43878</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         <v>43880</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>43893</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>43909</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>43910</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3254,7 +3254,7 @@
         <v>43917</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>43920</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>43969</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>43977</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>43993</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>44055</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
         <v>44055</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         <v>44109</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>44116</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>44116</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>44116</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         <v>44117</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3938,7 +3938,7 @@
         <v>44131</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>44131</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>44131</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>44147</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>44175</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>44178</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>44178</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>44215</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>44235</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>44236</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>44245</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>44246</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>44253</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>44264</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>44264</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>44273</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>44308</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>44309</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>44371</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>44385</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>44390</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>44390</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>44403</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>44434</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5311,7 +5311,7 @@
         <v>44434</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>44434</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>44435</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>44460</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         <v>44461</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>44480</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>44490</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>44515</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>44515</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>44538</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         <v>44538</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>44551</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>44594</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>44595</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>44596</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>44596</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>44599</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>44601</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>44608</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>44621</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>44629</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>44644</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>44672</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>44672</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>44685</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>44690</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>44713</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>44734</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         <v>44734</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44741</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>44741</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>44763</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>44776</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>44798</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>44817</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>44820</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>44832</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>44838</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7497,7 +7497,7 @@
         <v>44838</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>44838</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>44838</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7668,7 +7668,7 @@
         <v>44838</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>44838</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>44848</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>44852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>44860</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>44874</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>44879</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>44883</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8124,7 +8124,7 @@
         <v>44887</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         <v>44887</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8238,7 +8238,7 @@
         <v>44888</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8295,7 +8295,7 @@
         <v>44890</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>44896</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8409,7 +8409,7 @@
         <v>44908</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>44911</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>44911</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>44915</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>44970</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>44974</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>44977</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
         <v>44981</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44984</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>45001</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>45001</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>45001</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>45004</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>45005</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>45012</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9269,7 +9269,7 @@
         <v>45012</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9326,7 +9326,7 @@
         <v>45037</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9383,7 +9383,7 @@
         <v>45041</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9440,7 +9440,7 @@
         <v>45049</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>45050</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9554,7 +9554,7 @@
         <v>45051</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9616,7 +9616,7 @@
         <v>45051</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>45057</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
         <v>45061</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>45061</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9859,7 +9859,7 @@
         <v>45079</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9916,7 +9916,7 @@
         <v>45089</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9973,7 +9973,7 @@
         <v>45093</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10030,7 +10030,7 @@
         <v>45093</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10087,7 +10087,7 @@
         <v>45098</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10144,7 +10144,7 @@
         <v>45098</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10201,7 +10201,7 @@
         <v>45103</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10258,7 +10258,7 @@
         <v>45110</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10315,7 +10315,7 @@
         <v>45113</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10372,7 +10372,7 @@
         <v>45113</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10429,7 +10429,7 @@
         <v>45113</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10486,7 +10486,7 @@
         <v>45160</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10543,7 +10543,7 @@
         <v>45182</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10600,7 +10600,7 @@
         <v>45190</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>

--- a/Översikt HÖÖR.xlsx
+++ b/Översikt HÖÖR.xlsx
@@ -572,7 +572,7 @@
         <v>45098</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>43500</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         <v>43500</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -829,7 +829,7 @@
         <v>44281</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>44434</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>44446</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>45050</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
         <v>45079</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         <v>43347</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>43437</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>43439</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>43441</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         <v>43452</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>43461</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
         <v>43476</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>43476</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>43476</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
         <v>43488</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>43490</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>43496</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1943,7 +1943,7 @@
         <v>43502</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         <v>43517</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         <v>43549</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         <v>43553</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         <v>43587</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
         <v>43602</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
         <v>43620</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2342,7 +2342,7 @@
         <v>43623</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>43640</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>43677</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>43679</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>43689</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
         <v>43693</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
         <v>43781</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>43788</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         <v>43806</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>43810</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>43861</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2969,7 +2969,7 @@
         <v>43878</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         <v>43880</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>43893</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>43909</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>43910</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3254,7 +3254,7 @@
         <v>43917</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>43920</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>43969</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>43977</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>43993</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>44055</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
         <v>44055</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         <v>44109</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>44116</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>44116</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>44116</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         <v>44117</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3938,7 +3938,7 @@
         <v>44131</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>44131</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>44131</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>44147</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>44175</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>44178</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>44178</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>44215</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>44235</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>44236</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>44245</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>44246</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>44253</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>44264</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>44264</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>44273</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>44308</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>44309</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>44371</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>44385</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>44390</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>44390</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>44403</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>44434</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5311,7 +5311,7 @@
         <v>44434</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>44434</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>44435</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>44460</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         <v>44461</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>44480</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>44490</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>44515</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>44515</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>44538</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         <v>44538</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>44551</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>44594</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>44595</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6114,7 +6114,7 @@
         <v>44596</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>44596</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>44599</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>44601</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>44608</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>44621</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>44629</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>44644</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>44672</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>44672</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>44685</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>44690</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>44713</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>44734</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         <v>44734</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44741</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>44741</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>44763</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>44776</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>44798</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>44817</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>44820</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>44832</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>44838</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7497,7 +7497,7 @@
         <v>44838</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>44838</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>44838</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7668,7 +7668,7 @@
         <v>44838</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>44838</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>44848</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>44852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>44860</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>44874</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>44879</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>44883</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8124,7 +8124,7 @@
         <v>44887</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         <v>44887</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8238,7 +8238,7 @@
         <v>44888</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8295,7 +8295,7 @@
         <v>44890</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>44896</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8409,7 +8409,7 @@
         <v>44908</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>44911</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>44911</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>44915</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>44970</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>44974</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>44977</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
         <v>44981</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44984</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>45001</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>45001</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>45001</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>45004</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>45005</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>45012</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9269,7 +9269,7 @@
         <v>45012</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9326,7 +9326,7 @@
         <v>45037</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9383,7 +9383,7 @@
         <v>45041</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9440,7 +9440,7 @@
         <v>45049</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>45050</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9554,7 +9554,7 @@
         <v>45051</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9616,7 +9616,7 @@
         <v>45051</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>45057</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
         <v>45061</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>45061</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9859,7 +9859,7 @@
         <v>45079</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9916,7 +9916,7 @@
         <v>45089</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9973,7 +9973,7 @@
         <v>45093</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10030,7 +10030,7 @@
         <v>45093</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10087,7 +10087,7 @@
         <v>45098</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10144,7 +10144,7 @@
         <v>45098</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10201,7 +10201,7 @@
         <v>45103</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10258,7 +10258,7 @@
         <v>45110</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10315,7 +10315,7 @@
         <v>45113</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10372,7 +10372,7 @@
         <v>45113</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10429,7 +10429,7 @@
         <v>45113</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10486,7 +10486,7 @@
         <v>45160</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10543,7 +10543,7 @@
         <v>45182</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10600,7 +10600,7 @@
         <v>45190</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
